--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1914746.820235328</v>
+        <v>-1917329.852305057</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>127.6068278246517</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>72.57171105915033</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657085</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.944023270396831</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7.823231064584058</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>31.86562382405586</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>55.20846889600219</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>90.6553774435647</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>296.6412606371773</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>127.2251547654542</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>19.78589926923127</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>184.1110579343357</v>
       </c>
     </row>
     <row r="11">
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000783</v>
+        <v>18.1642367762243</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>146.0535160667527</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811985</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146493</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>104.7777418077837</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428193</v>
+        <v>87.26519496153752</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012167</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316659</v>
+        <v>158.4533545316661</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512504</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796073</v>
+        <v>137.6404960796075</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559695</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>156.7306717253071</v>
       </c>
       <c r="H28" t="n">
-        <v>55.53735326194321</v>
+        <v>131.5012462792622</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160362</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315978</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>208.6119837603266</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222822</v>
+        <v>277.3910078222824</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>143.898186904282</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696291</v>
+        <v>277.7295317696293</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220752</v>
+        <v>216.9161888220754</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851331</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2956,10 +2956,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410821</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470409</v>
+        <v>810.5660676371783</v>
       </c>
       <c r="D2" t="n">
-        <v>920.7766538636586</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E2" t="n">
-        <v>534.9884012654143</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F2" t="n">
-        <v>534.9884012654143</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148717</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1566.128424641712</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4401,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228012</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4422,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181852</v>
+        <v>518.4459618444153</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181852</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
@@ -4507,31 +4507,31 @@
         <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181852</v>
+        <v>920.8870058181851</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181852</v>
+        <v>700.094426674655</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.766690866869</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.804173926457</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.804173926457</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>794.0159213282132</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0300165386056</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>371.9979704240062</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>74.41437003277338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3293.418322796992</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3087.440575181215</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3087.440575181215</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2756.377687837644</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4689,7 +4689,7 @@
         <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.7860413842975</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>325.7860413842975</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145372</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="W7" t="n">
-        <v>507.4345062145372</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="X7" t="n">
-        <v>507.4345062145372</v>
+        <v>122.2782466301654</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.4345062145372</v>
+        <v>122.2782466301654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881545</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>889.4262728751025</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>503.6380202768583</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.120390387711</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C10" t="n">
-        <v>699.120390387711</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>549.0037509753753</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>401.0906573929822</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>254.2007098950718</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>86.49787326979077</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.120390387711</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400714</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121645</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703112</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188012</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>888.6771326738543</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>738.5604932615186</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>590.6473996791254</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.309241249041</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121646</v>
+        <v>411.963121559762</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121646</v>
+        <v>264.0500279773689</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121646</v>
+        <v>264.0500279773689</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270445</v>
+        <v>264.0500279773689</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179087</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046087</v>
+        <v>822.0523701912167</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382795</v>
+        <v>661.9984767248873</v>
       </c>
       <c r="D28" t="n">
-        <v>362.1502176875215</v>
+        <v>661.9984767248873</v>
       </c>
       <c r="E28" t="n">
-        <v>223.1194135667061</v>
+        <v>522.9676726040716</v>
       </c>
       <c r="F28" t="n">
-        <v>223.1194135667061</v>
+        <v>384.9600145677388</v>
       </c>
       <c r="G28" t="n">
-        <v>223.1194135667061</v>
+        <v>226.6462047441963</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384806</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.758213379588</v>
+        <v>182.7582133795883</v>
       </c>
       <c r="K28" t="n">
         <v>453.1530078064189</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836514</v>
+        <v>852.2571338836511</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162406</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790597</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504579</v>
+        <v>2516.607338790597</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621061</v>
+        <v>2342.634793907079</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105579</v>
+        <v>2131.915618391598</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911355</v>
+        <v>1851.722681197373</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167046</v>
+        <v>1706.370977253654</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591663</v>
+        <v>1425.836096678271</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155223</v>
+        <v>1206.728835241832</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732707</v>
+        <v>994.8185455598789</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,10 +6856,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7369,13 +7369,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>283.3148978288017</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>160.302797828231</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778758154</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891659</v>
+        <v>268.0202376130198</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664511</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514754</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194194</v>
+        <v>53.02951788468636</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512506</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559693</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253069</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96389301731877</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315997</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>99.44598985258433</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82260.24434218735</v>
+        <v>82260.24434218733</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
         <v>100893.3249612508</v>
@@ -26326,7 +26326,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
@@ -26338,19 +26338,19 @@
         <v>101522.2547944396</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508468</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006223</v>
+        <v>12392.94474006241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569549</v>
+        <v>7034.773253569389</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006224</v>
+        <v>12392.94474006244</v>
       </c>
     </row>
     <row r="4">
@@ -26418,19 +26418,19 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189196</v>
@@ -26439,22 +26439,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>18940.07269946539</v>
+        <v>18940.07269946532</v>
       </c>
       <c r="K4" t="n">
+        <v>24037.44323498547</v>
+      </c>
+      <c r="L4" t="n">
         <v>24037.44323498545</v>
       </c>
-      <c r="L4" t="n">
-        <v>24037.44323498546</v>
-      </c>
       <c r="M4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498543</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498545</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355003.088935805</v>
+        <v>-1355410.488473621</v>
       </c>
       <c r="C6" t="n">
-        <v>-98900.46343241048</v>
+        <v>-98900.4634324105</v>
       </c>
       <c r="D6" t="n">
-        <v>-98900.46343241048</v>
+        <v>-98900.46343241046</v>
       </c>
       <c r="E6" t="n">
-        <v>-341688.2506419034</v>
+        <v>-341722.9885673392</v>
       </c>
       <c r="F6" t="n">
-        <v>-16275.78883454829</v>
+        <v>-16310.526759984</v>
       </c>
       <c r="G6" t="n">
-        <v>-16275.78883454835</v>
+        <v>-16310.526759984</v>
       </c>
       <c r="H6" t="n">
-        <v>-16275.78883454829</v>
+        <v>-16310.52675998399</v>
       </c>
       <c r="I6" t="n">
-        <v>-16275.78883454832</v>
+        <v>-16310.52675998402</v>
       </c>
       <c r="J6" t="n">
-        <v>-243845.5813205979</v>
+        <v>-243867.7406493695</v>
       </c>
       <c r="K6" t="n">
-        <v>-36964.28259592765</v>
+        <v>-36964.2825959278</v>
       </c>
       <c r="L6" t="n">
         <v>-24571.33785586539</v>
       </c>
       <c r="M6" t="n">
-        <v>-109626.3657913772</v>
+        <v>-109626.3657913773</v>
       </c>
       <c r="N6" t="n">
-        <v>-24571.33785586542</v>
+        <v>-24571.33785586541</v>
       </c>
       <c r="O6" t="n">
-        <v>-31606.11110943495</v>
+        <v>-31606.1111094348</v>
       </c>
       <c r="P6" t="n">
-        <v>-36964.28259592764</v>
+        <v>-36964.28259592786</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507779</v>
+        <v>15.49118092507801</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961936</v>
+        <v>8.793466566961737</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507781</v>
+        <v>15.49118092507805</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507779</v>
+        <v>15.49118092507801</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>33.75369870834189</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>77.32213796411997</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>124.6235112859351</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>57.96009557464765</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>68.63163113383024</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>279.6508909762572</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>124.9691156450895</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>34.47359541775907</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961918</v>
+        <v>8.793466566961715</v>
       </c>
     </row>
     <row r="29">
@@ -29509,13 +29509,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,10 +32470,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991527</v>
+        <v>89.83994982991507</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765969</v>
+        <v>273.1260549765967</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860934</v>
+        <v>403.1354808860931</v>
       </c>
       <c r="M28" t="n">
-        <v>435.065893568007</v>
+        <v>435.0658935680069</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.4195995568692</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730073</v>
+        <v>382.0553662730072</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735869</v>
+        <v>304.4252398735867</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668603</v>
+        <v>129.1957238668601</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
